--- a/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
@@ -678,7 +678,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4283455738", "https://openalex.org/W2177084702", "https://openalex.org/W2341310609", "https://openalex.org/W4281661372", "https://openalex.org/W4252900798", "https://openalex.org/W3024628681", "https://openalex.org/W1901036498", "https://openalex.org/W2285051775", "https://openalex.org/W2155138342", "https://openalex.org/W4210638061")</t>
+          <t>c("https://openalex.org/W4238752995", "https://openalex.org/W2393977738", "https://openalex.org/W2088706544", "https://openalex.org/W4207046597", "https://openalex.org/W4285669903", "https://openalex.org/W2051801047", "https://openalex.org/W1994583257", "https://openalex.org/W1867320779", "https://openalex.org/W2142353978", "https://openalex.org/W1973582222")</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,335 +360,154 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>url</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>license</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Carli Ogle, Billie Bixby, Janet Campion</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606415</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>May 2023 Critical Care Case of the Month: Not a Humerus Case</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5089483907", "https://openalex.org/A5018252846", "https://openalex.org/A5007279077"), au_display_name = c("Carli Ogle", "Billie Bixby", "Janet Campion"), au_orcid = c(NA, "https://orcid.org/0000-0002-4912-1925", NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), institution_type = c(NA, 
-NA, NA), institution_lineage = c(NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>No abstract available. Article truncated after 150 words. History of Present Illness: A 57-year-old woman with history of bone disease presented with a 3-day history of cough with thick yellow phlegm and progressive shortness of breath. No fever, chest pain or abdominal pain was noted. In the emergency department, she had SpO2 of 55% on room air, and then 90% on 15L NRB. Past Medical History/Social History/Family History • Bone disease since birth • Asthma • Severe scoliosis • Gastrointestinal reflux disease • Cholecystectomy • Spinal growth rods • Lives in adult care home, supportive family • No smoking or alcohol use • No illicit drug use • There is no family history of any bone disease Home Medications: • Albuterol MDI PRN • Alendronate 10mg daily • Budesonide nebulizer BID • Calcium carbonate BID • MVI daily • Lisinopril 10mg daily • Loratadine 10mg daily • Metformin 500mg BID • Metoprolol 12.5mg BID • Montelukast 10mg daily • Naprosyn PRN • Omeprazole 20mg daily • Simvastatin 10mg daily • Tizanidine PRN • Vitamin D 2000 IU daily Allergies: Cefazolin, PCN, Sulfa …</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
+          <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S4220651572</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2771-5558</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.swjpcc.com/storage/manuscripts/volume-26/issue-5/018-23/018-23.pdf</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>https://www.swjpcc.com/storage/manuscripts/volume-26/issue-5/018-23/018-23.pdf</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4367606415</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4367606415", doi = "https://doi.org/10.13175/swjpccs018-23")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.13175/swjpccs018-23</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4238752995", "https://openalex.org/W2393977738", "https://openalex.org/W2088706544", "https://openalex.org/W4207046597", "https://openalex.org/W4285669903", "https://openalex.org/W2051801047", "https://openalex.org/W1994583257", "https://openalex.org/W1867320779", "https://openalex.org/W2142353978", "https://openalex.org/W1973582222")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Janet Campion_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,70 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -442,70 +447,75 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606415</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>May 2023 Critical Care Case of the Month: Not a Humerus Case</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
